--- a/data/raw_data/SCB_classifications.xlsx
+++ b/data/raw_data/SCB_classifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evaengel/comparison_NLP_classification_models/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59D9063-C911-D64C-930F-BA08E16D643A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BC08EC-977F-F34D-9B0B-1A189548A665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="48080" yWindow="-16180" windowWidth="19120" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="607">
   <si>
     <t>naturvetenskap</t>
   </si>
@@ -127,9 +127,6 @@
     <t>språkteknologi ( språkvetenskaplig databehandling )</t>
   </si>
   <si>
-    <t>language technology ( computational linguistics )</t>
-  </si>
-  <si>
     <t>medieteknik</t>
   </si>
   <si>
@@ -160,12 +157,6 @@
     <t>atom and molecular physics and optics</t>
   </si>
   <si>
-    <t>fusion,  plasma och rymdfysik</t>
-  </si>
-  <si>
-    <t>fusion,  plasma and space physics</t>
-  </si>
-  <si>
     <t>den kondenserade materiens fysik</t>
   </si>
   <si>
@@ -265,9 +256,6 @@
     <t>multidisciplinär geovetenskap</t>
   </si>
   <si>
-    <t>geosciences,  multidisciplinary</t>
-  </si>
-  <si>
     <t>geologi</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>meteorologi och atmosfärforskning</t>
   </si>
   <si>
-    <t>mete ology and atmospheric sciences</t>
-  </si>
-  <si>
     <t>oceanografi,  hydrologi och vattenresurser</t>
   </si>
   <si>
@@ -313,9 +298,6 @@
     <t>biologi</t>
   </si>
   <si>
-    <t>biological sciences</t>
-  </si>
-  <si>
     <t>strukturbiologi</t>
   </si>
   <si>
@@ -493,9 +475,6 @@
     <t>elektroteknik och elektronik</t>
   </si>
   <si>
-    <t>electrical engineering,  electronic engineering,  information engineering</t>
-  </si>
-  <si>
     <t>robotteknik och automation</t>
   </si>
   <si>
@@ -541,9 +520,6 @@
     <t>annan elektroteknik och elektronik</t>
   </si>
   <si>
-    <t>other electrical engineering</t>
-  </si>
-  <si>
     <t>maskinteknik</t>
   </si>
   <si>
@@ -661,9 +637,6 @@
     <t>pappers-,  massa- och fiberteknik</t>
   </si>
   <si>
-    <t>paper,  pulp and fiber technology</t>
-  </si>
-  <si>
     <t>textil-, gummi- och polymermaterial</t>
   </si>
   <si>
@@ -673,9 +646,6 @@
     <t>bearbetnings-,  yt- och fogningsteknik</t>
   </si>
   <si>
-    <t>manufacturing,  surface and joining technology</t>
-  </si>
-  <si>
     <t>metallurgi och metalliska material</t>
   </si>
   <si>
@@ -883,9 +853,6 @@
     <t>nanoteknik</t>
   </si>
   <si>
-    <t>nano - technology</t>
-  </si>
-  <si>
     <t>annan teknik</t>
   </si>
   <si>
@@ -913,9 +880,6 @@
     <t>övrig annan teknik</t>
   </si>
   <si>
-    <t>other engineering and technologies not elsewhere</t>
-  </si>
-  <si>
     <t>medicin och hälsovetenskap</t>
   </si>
   <si>
@@ -1117,9 +1081,6 @@
     <t>reproduktionsmedicin och gynekologi</t>
   </si>
   <si>
-    <t>obstetrics,  gynaecology and reproductive medicine</t>
-  </si>
-  <si>
     <t>pediatrik</t>
   </si>
   <si>
@@ -1159,15 +1120,9 @@
     <t>hälso- och sjukvårdsorganisation,  hälsopolitik och hälsoekonomi</t>
   </si>
   <si>
-    <t>health care service and management,  health policy and services and health economy</t>
-  </si>
-  <si>
     <t>folkhälsovetenskap,  global hälsa,  socialmedicin och epidemiologi</t>
   </si>
   <si>
-    <t>public health,  global health,  social medicine and epidemiology</t>
-  </si>
-  <si>
     <t>arbetsmedicin och miljömedicin</t>
   </si>
   <si>
@@ -1258,15 +1213,9 @@
     <t>gerontologi</t>
   </si>
   <si>
-    <t>gerontology</t>
-  </si>
-  <si>
     <t>övrig annan medicin och hälsovetenskap</t>
   </si>
   <si>
-    <t>other medical and health sciences not elsewhere</t>
-  </si>
-  <si>
     <t>lantbruksvetenskap och veterinärmedicin</t>
   </si>
   <si>
@@ -1276,9 +1225,6 @@
     <t>lantbruksvetenskap,  skogsbruk och fiske</t>
   </si>
   <si>
-    <t>agriculture,  forestry and fisheries</t>
-  </si>
-  <si>
     <t>jordbruksvetenskap</t>
   </si>
   <si>
@@ -1330,523 +1276,571 @@
     <t>husdjursvetenskap</t>
   </si>
   <si>
+    <t>veterinärmedicin</t>
+  </si>
+  <si>
+    <t>veterinary science</t>
+  </si>
+  <si>
+    <t>medicinsk biovetenskap</t>
+  </si>
+  <si>
+    <t>medical bioscience</t>
+  </si>
+  <si>
+    <t>patobiologi</t>
+  </si>
+  <si>
+    <t>pathobiology</t>
+  </si>
+  <si>
+    <t>klinisk vetenskap</t>
+  </si>
+  <si>
+    <t>clinical science</t>
+  </si>
+  <si>
+    <t>annan veterinärmedicin</t>
+  </si>
+  <si>
+    <t>other veterinary science</t>
+  </si>
+  <si>
+    <t>bioteknologi med applikationer på växter och djur</t>
+  </si>
+  <si>
+    <t>agricultural biotechnology</t>
+  </si>
+  <si>
+    <t>växtbioteknologi</t>
+  </si>
+  <si>
+    <t>plant biotechnology</t>
+  </si>
+  <si>
+    <t>genetik och förädling inom lantbruksvetenskap</t>
+  </si>
+  <si>
+    <t>genetics and breeding in agricultural sciences</t>
+  </si>
+  <si>
+    <t>annan lantbruksvetenskap</t>
+  </si>
+  <si>
+    <t>other agricultural sciences</t>
+  </si>
+  <si>
+    <t>förnyelsebar bioenergi</t>
+  </si>
+  <si>
+    <t>renewable bioenergy research</t>
+  </si>
+  <si>
+    <t>vilt- och fiskeförvaltning</t>
+  </si>
+  <si>
+    <t>fish and wildlife management</t>
+  </si>
+  <si>
+    <t>lantbrukets arbetsmiljö och säkerhet</t>
+  </si>
+  <si>
+    <t>agricultural occupational health and safety</t>
+  </si>
+  <si>
+    <t>miljö- och naturvårdsvetenskap</t>
+  </si>
+  <si>
+    <t>övrig annan lantbruksvetenskap</t>
+  </si>
+  <si>
+    <t>other agricultural sciences not elsewhere specified</t>
+  </si>
+  <si>
+    <t>samhällsvetenskap</t>
+  </si>
+  <si>
+    <t>social sciences</t>
+  </si>
+  <si>
+    <t>psykologi</t>
+  </si>
+  <si>
+    <t>psychology</t>
+  </si>
+  <si>
+    <t>psykologi ( exklusive tillämpad psykologi )</t>
+  </si>
+  <si>
+    <t>psychology ( excluding applied psychology )</t>
+  </si>
+  <si>
+    <t>tillämpad psykologi</t>
+  </si>
+  <si>
+    <t>applied psychology</t>
+  </si>
+  <si>
+    <t>ekonomi och näringsliv</t>
+  </si>
+  <si>
+    <t>economics and business</t>
+  </si>
+  <si>
+    <t>nationalekonomi</t>
+  </si>
+  <si>
+    <t>economics</t>
+  </si>
+  <si>
+    <t>företagsekonomi</t>
+  </si>
+  <si>
+    <t>business administration</t>
+  </si>
+  <si>
+    <t>ekonomisk historia</t>
+  </si>
+  <si>
+    <t>economic history</t>
+  </si>
+  <si>
+    <t>utbildningsvetenskap</t>
+  </si>
+  <si>
+    <t>educational sciences</t>
+  </si>
+  <si>
+    <t>pedagogik</t>
+  </si>
+  <si>
+    <t>pedagogy</t>
+  </si>
+  <si>
+    <t>didaktik</t>
+  </si>
+  <si>
+    <t>didactics</t>
+  </si>
+  <si>
+    <t>lärande</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>pedagogiskt arbete</t>
+  </si>
+  <si>
+    <t>pedagogical work</t>
+  </si>
+  <si>
+    <t>sociologi</t>
+  </si>
+  <si>
+    <t>sociology</t>
+  </si>
+  <si>
+    <t>socialt arbete</t>
+  </si>
+  <si>
+    <t>social work</t>
+  </si>
+  <si>
+    <t>socialpsykologi</t>
+  </si>
+  <si>
+    <t>social psychology</t>
+  </si>
+  <si>
+    <t>socialantropologi</t>
+  </si>
+  <si>
+    <t>social anthropology</t>
+  </si>
+  <si>
+    <t>juridik</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>juridik ( exklusive juridik och samhälle )</t>
+  </si>
+  <si>
+    <t>law ( excluding law and society )</t>
+  </si>
+  <si>
+    <t>juridik och samhälle</t>
+  </si>
+  <si>
+    <t>law and society</t>
+  </si>
+  <si>
+    <t>statsvetenskap</t>
+  </si>
+  <si>
+    <t>political science</t>
+  </si>
+  <si>
+    <t>studier av offentlig förvaltning</t>
+  </si>
+  <si>
+    <t>public administration studies</t>
+  </si>
+  <si>
+    <t>globaliseringsstudier</t>
+  </si>
+  <si>
+    <t>globalisation studies</t>
+  </si>
+  <si>
+    <t>social och ekonomisk geografi</t>
+  </si>
+  <si>
+    <t>social and economic geography</t>
+  </si>
+  <si>
+    <t>kulturgeografi</t>
+  </si>
+  <si>
+    <t>human geography</t>
+  </si>
+  <si>
+    <t>ekonomisk geografi</t>
+  </si>
+  <si>
+    <t>economic geography</t>
+  </si>
+  <si>
+    <t>medie- och kommunikationsvetenskap</t>
+  </si>
+  <si>
+    <t>media and communications</t>
+  </si>
+  <si>
+    <t>medievetenskap</t>
+  </si>
+  <si>
+    <t>media studies</t>
+  </si>
+  <si>
+    <t>kommunikationsvetenskap</t>
+  </si>
+  <si>
+    <t>communication studies</t>
+  </si>
+  <si>
+    <t>mänsklig interaktion med ikt</t>
+  </si>
+  <si>
+    <t>human aspects of ict</t>
+  </si>
+  <si>
+    <t>systemvetenskap,  informationssystem och informatik med samhällsvetenskaplig inriktning</t>
+  </si>
+  <si>
+    <t>biblioteks- och informationsvetenskap</t>
+  </si>
+  <si>
+    <t>information studies</t>
+  </si>
+  <si>
+    <t>annan samhällsvetenskap</t>
+  </si>
+  <si>
+    <t>other social sciences</t>
+  </si>
+  <si>
+    <t>tvärvetenskapliga studier inom samhällsvetenskap</t>
+  </si>
+  <si>
+    <t>social sciences interdisciplinary</t>
+  </si>
+  <si>
+    <t>genusstudier</t>
+  </si>
+  <si>
+    <t>gender studies</t>
+  </si>
+  <si>
+    <t>arbetslivsstudier</t>
+  </si>
+  <si>
+    <t>work sciences</t>
+  </si>
+  <si>
+    <t>internationell migration och etniska relationer ( imer )</t>
+  </si>
+  <si>
+    <t>international migration and ethnic relations</t>
+  </si>
+  <si>
+    <t>övrig annan samhällsvetenskap</t>
+  </si>
+  <si>
+    <t>other social sciences not elsewhere specified</t>
+  </si>
+  <si>
+    <t>humaniora och konst</t>
+  </si>
+  <si>
+    <t>humanities and the arts</t>
+  </si>
+  <si>
+    <t>historia och arkeologi</t>
+  </si>
+  <si>
+    <t>history and archaeology</t>
+  </si>
+  <si>
+    <t>historia</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>teknikhistoria</t>
+  </si>
+  <si>
+    <t>history of technology</t>
+  </si>
+  <si>
+    <t>arkeologi</t>
+  </si>
+  <si>
+    <t>archaeology</t>
+  </si>
+  <si>
+    <t>språk och litteratur</t>
+  </si>
+  <si>
+    <t>languages and literature</t>
+  </si>
+  <si>
+    <t>jämförande språkvetenskap och allmän lingvistik</t>
+  </si>
+  <si>
+    <t>general language studies and linguistics</t>
+  </si>
+  <si>
+    <t>studier av enskilda språk</t>
+  </si>
+  <si>
+    <t>specific languages</t>
+  </si>
+  <si>
+    <t>litteraturvetenskap</t>
+  </si>
+  <si>
+    <t>general literary studies</t>
+  </si>
+  <si>
+    <t>litteraturstudier</t>
+  </si>
+  <si>
+    <t>specific literatures</t>
+  </si>
+  <si>
+    <t>filosofi,  etik och religion</t>
+  </si>
+  <si>
+    <t>filosofi</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>etik</t>
+  </si>
+  <si>
+    <t>ethics</t>
+  </si>
+  <si>
+    <t>religionsvetenskap</t>
+  </si>
+  <si>
+    <t>religious studies</t>
+  </si>
+  <si>
+    <t>religionshistoria</t>
+  </si>
+  <si>
+    <t>history of religions</t>
+  </si>
+  <si>
+    <t>idé- och lärdomshistoria</t>
+  </si>
+  <si>
+    <t>history of ideas</t>
+  </si>
+  <si>
+    <t>konst</t>
+  </si>
+  <si>
+    <t>arts</t>
+  </si>
+  <si>
+    <t>bildkonst</t>
+  </si>
+  <si>
+    <t>visual arts</t>
+  </si>
+  <si>
+    <t>musik</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>litterär gestaltning</t>
+  </si>
+  <si>
+    <t>literary composition</t>
+  </si>
+  <si>
+    <t>scenkonst</t>
+  </si>
+  <si>
+    <t>performing arts</t>
+  </si>
+  <si>
+    <t>arkitektur</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>konstvetenskap</t>
+  </si>
+  <si>
+    <t>art history</t>
+  </si>
+  <si>
+    <t>musikvetenskap</t>
+  </si>
+  <si>
+    <t>musicology</t>
+  </si>
+  <si>
+    <t>teatervetenskap</t>
+  </si>
+  <si>
+    <t>performing art studies</t>
+  </si>
+  <si>
+    <t>filmvetenskap</t>
+  </si>
+  <si>
+    <t>studies on film</t>
+  </si>
+  <si>
+    <t>annan humaniora</t>
+  </si>
+  <si>
+    <t>other humanities</t>
+  </si>
+  <si>
+    <t>antikvetenskap</t>
+  </si>
+  <si>
+    <t>classical archaeology and ancient history</t>
+  </si>
+  <si>
+    <t>kulturstudier</t>
+  </si>
+  <si>
+    <t>cultural studies</t>
+  </si>
+  <si>
+    <t>etnologi</t>
+  </si>
+  <si>
+    <t>ethnology</t>
+  </si>
+  <si>
+    <t>övrig annan humaniora</t>
+  </si>
+  <si>
+    <t>other humanities not elsewhere specified</t>
+  </si>
+  <si>
+    <t>Label_Sv</t>
+  </si>
+  <si>
+    <t>Label_En</t>
+  </si>
+  <si>
+    <t>agriculture, forestry and fisheries</t>
+  </si>
+  <si>
+    <t>public health, global health, social medicine and epidemiology</t>
+  </si>
+  <si>
+    <t>environmental sciences related to agriculture and land-use</t>
+  </si>
+  <si>
+    <t>information systems, social aspects</t>
+  </si>
+  <si>
+    <t>geosciences, multidisciplinary</t>
+  </si>
+  <si>
+    <t>nano-technology</t>
+  </si>
+  <si>
+    <t>meteorology and atmospheric sciences</t>
+  </si>
+  <si>
+    <t>philosophy, ethics and religion</t>
+  </si>
+  <si>
+    <t>biological sciences (medical to be 3 and agricultural to be 4)</t>
+  </si>
+  <si>
+    <t>other medical and health sciences not elsewhere specified</t>
+  </si>
+  <si>
+    <t>paper, pulp and fiber technology</t>
+  </si>
+  <si>
+    <t>obstetrics, gynaecology and reproductive medicine</t>
+  </si>
+  <si>
+    <t>health care service and management, health policy and services and health economy</t>
+  </si>
+  <si>
+    <t>animal and dairy science.</t>
+  </si>
+  <si>
+    <t>manufacturing, surface and joining technology</t>
+  </si>
+  <si>
+    <t>fusion, plasma and space physics</t>
+  </si>
+  <si>
+    <t>fusion, plasma och rymdfysik</t>
+  </si>
+  <si>
+    <t>language technology</t>
+  </si>
+  <si>
+    <t>electrical engineering, electronic engineering, information engineering</t>
+  </si>
+  <si>
+    <t>other electrical engineering, electronic engineering, information engineering</t>
+  </si>
+  <si>
     <t>animal and dairy sience</t>
   </si>
   <si>
-    <t>animal and dairy science .</t>
-  </si>
-  <si>
-    <t>veterinärmedicin</t>
-  </si>
-  <si>
-    <t>veterinary science</t>
-  </si>
-  <si>
-    <t>medicinsk biovetenskap</t>
-  </si>
-  <si>
-    <t>medical bioscience</t>
-  </si>
-  <si>
-    <t>patobiologi</t>
-  </si>
-  <si>
-    <t>pathobiology</t>
-  </si>
-  <si>
-    <t>klinisk vetenskap</t>
-  </si>
-  <si>
-    <t>clinical science</t>
-  </si>
-  <si>
-    <t>annan veterinärmedicin</t>
-  </si>
-  <si>
-    <t>other veterinary science</t>
-  </si>
-  <si>
-    <t>bioteknologi med applikationer på växter och djur</t>
-  </si>
-  <si>
-    <t>agricultural biotechnology</t>
-  </si>
-  <si>
-    <t>växtbioteknologi</t>
-  </si>
-  <si>
-    <t>plant biotechnology</t>
-  </si>
-  <si>
-    <t>genetik och förädling inom lantbruksvetenskap</t>
-  </si>
-  <si>
-    <t>genetics and breeding in agricultural sciences</t>
-  </si>
-  <si>
-    <t>annan lantbruksvetenskap</t>
-  </si>
-  <si>
-    <t>other agricultural sciences</t>
-  </si>
-  <si>
-    <t>förnyelsebar bioenergi</t>
-  </si>
-  <si>
-    <t>renewable bioenergy research</t>
-  </si>
-  <si>
-    <t>vilt- och fiskeförvaltning</t>
-  </si>
-  <si>
-    <t>fish and wildlife management</t>
-  </si>
-  <si>
-    <t>lantbrukets arbetsmiljö och säkerhet</t>
-  </si>
-  <si>
-    <t>agricultural occupational health and safety</t>
-  </si>
-  <si>
-    <t>miljö- och naturvårdsvetenskap</t>
-  </si>
-  <si>
-    <t>environmental sciences related to agriculture and land</t>
-  </si>
-  <si>
-    <t>övrig annan lantbruksvetenskap</t>
-  </si>
-  <si>
-    <t>other agricultural sciences not elsewhere specified</t>
-  </si>
-  <si>
-    <t>samhällsvetenskap</t>
-  </si>
-  <si>
-    <t>social sciences</t>
-  </si>
-  <si>
-    <t>psykologi</t>
-  </si>
-  <si>
-    <t>psychology</t>
-  </si>
-  <si>
-    <t>psykologi ( exklusive tillämpad psykologi )</t>
-  </si>
-  <si>
-    <t>psychology ( excluding applied psychology )</t>
-  </si>
-  <si>
-    <t>tillämpad psykologi</t>
-  </si>
-  <si>
-    <t>applied psychology</t>
-  </si>
-  <si>
-    <t>ekonomi och näringsliv</t>
-  </si>
-  <si>
-    <t>economics and business</t>
-  </si>
-  <si>
-    <t>nationalekonomi</t>
-  </si>
-  <si>
-    <t>economics</t>
-  </si>
-  <si>
-    <t>företagsekonomi</t>
-  </si>
-  <si>
-    <t>business administration</t>
-  </si>
-  <si>
-    <t>ekonomisk historia</t>
-  </si>
-  <si>
-    <t>economic history</t>
-  </si>
-  <si>
-    <t>utbildningsvetenskap</t>
-  </si>
-  <si>
-    <t>educational sciences</t>
-  </si>
-  <si>
-    <t>pedagogik</t>
-  </si>
-  <si>
-    <t>pedagogy</t>
-  </si>
-  <si>
-    <t>didaktik</t>
-  </si>
-  <si>
-    <t>didactics</t>
-  </si>
-  <si>
-    <t>lärande</t>
-  </si>
-  <si>
-    <t>learning</t>
-  </si>
-  <si>
-    <t>pedagogiskt arbete</t>
-  </si>
-  <si>
-    <t>pedagogical work</t>
-  </si>
-  <si>
-    <t>sociologi</t>
-  </si>
-  <si>
-    <t>sociology</t>
-  </si>
-  <si>
-    <t>socialt arbete</t>
-  </si>
-  <si>
-    <t>social work</t>
-  </si>
-  <si>
-    <t>socialpsykologi</t>
-  </si>
-  <si>
-    <t>social psychology</t>
-  </si>
-  <si>
-    <t>socialantropologi</t>
-  </si>
-  <si>
-    <t>social anthropology</t>
-  </si>
-  <si>
-    <t>juridik</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>juridik ( exklusive juridik och samhälle )</t>
-  </si>
-  <si>
-    <t>law ( excluding law and society )</t>
-  </si>
-  <si>
-    <t>juridik och samhälle</t>
-  </si>
-  <si>
-    <t>law and society</t>
-  </si>
-  <si>
-    <t>statsvetenskap</t>
-  </si>
-  <si>
-    <t>political science</t>
-  </si>
-  <si>
-    <t>statsvetenskap ( exklusive studier av offentlig</t>
-  </si>
-  <si>
-    <t>political science ( excluding public administration studies</t>
-  </si>
-  <si>
-    <t>studier av offentlig förvaltning</t>
-  </si>
-  <si>
-    <t>public administration studies</t>
-  </si>
-  <si>
-    <t>globaliseringsstudier</t>
-  </si>
-  <si>
-    <t>globalisation studies</t>
-  </si>
-  <si>
-    <t>social och ekonomisk geografi</t>
-  </si>
-  <si>
-    <t>social and economic geography</t>
-  </si>
-  <si>
-    <t>kulturgeografi</t>
-  </si>
-  <si>
-    <t>human geography</t>
-  </si>
-  <si>
-    <t>ekonomisk geografi</t>
-  </si>
-  <si>
-    <t>economic geography</t>
-  </si>
-  <si>
-    <t>medie- och kommunikationsvetenskap</t>
-  </si>
-  <si>
-    <t>media and communications</t>
-  </si>
-  <si>
-    <t>medievetenskap</t>
-  </si>
-  <si>
-    <t>media studies</t>
-  </si>
-  <si>
-    <t>kommunikationsvetenskap</t>
-  </si>
-  <si>
-    <t>communication studies</t>
-  </si>
-  <si>
-    <t>mänsklig interaktion med ikt</t>
-  </si>
-  <si>
-    <t>human aspects of ict</t>
-  </si>
-  <si>
-    <t>systemvetenskap,  informationssystem och informatik med samhällsvetenskaplig inriktning</t>
-  </si>
-  <si>
-    <t>information systems,  social aspects</t>
-  </si>
-  <si>
-    <t>biblioteks- och informationsvetenskap</t>
-  </si>
-  <si>
-    <t>information studies</t>
-  </si>
-  <si>
-    <t>annan samhällsvetenskap</t>
-  </si>
-  <si>
-    <t>other social sciences</t>
-  </si>
-  <si>
-    <t>tvärvetenskapliga studier inom samhällsvetenskap</t>
-  </si>
-  <si>
-    <t>social sciences interdisciplinary</t>
-  </si>
-  <si>
-    <t>genusstudier</t>
-  </si>
-  <si>
-    <t>gender studies</t>
-  </si>
-  <si>
-    <t>arbetslivsstudier</t>
-  </si>
-  <si>
-    <t>work sciences</t>
-  </si>
-  <si>
-    <t>internationell migration och etniska relationer ( imer )</t>
-  </si>
-  <si>
-    <t>international migration and ethnic relations</t>
-  </si>
-  <si>
-    <t>övrig annan samhällsvetenskap</t>
-  </si>
-  <si>
-    <t>other social sciences not elsewhere specified</t>
-  </si>
-  <si>
-    <t>humaniora och konst</t>
-  </si>
-  <si>
-    <t>humanities and the arts</t>
-  </si>
-  <si>
-    <t>historia och arkeologi</t>
-  </si>
-  <si>
-    <t>history and archaeology</t>
-  </si>
-  <si>
-    <t>historia</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>teknikhistoria</t>
-  </si>
-  <si>
-    <t>history of technology</t>
-  </si>
-  <si>
-    <t>arkeologi</t>
-  </si>
-  <si>
-    <t>archaeology</t>
-  </si>
-  <si>
-    <t>språk och litteratur</t>
-  </si>
-  <si>
-    <t>languages and literature</t>
-  </si>
-  <si>
-    <t>jämförande språkvetenskap och allmän lingvistik</t>
-  </si>
-  <si>
-    <t>general language studies and linguistics</t>
-  </si>
-  <si>
-    <t>studier av enskilda språk</t>
-  </si>
-  <si>
-    <t>specific languages</t>
-  </si>
-  <si>
-    <t>litteraturvetenskap</t>
-  </si>
-  <si>
-    <t>general literary studies</t>
-  </si>
-  <si>
-    <t>litteraturstudier</t>
-  </si>
-  <si>
-    <t>specific literatures</t>
-  </si>
-  <si>
-    <t>filosofi,  etik och religion</t>
-  </si>
-  <si>
-    <t>philosophy,  ethics and religion</t>
-  </si>
-  <si>
-    <t>filosofi</t>
-  </si>
-  <si>
-    <t>philosophy</t>
-  </si>
-  <si>
-    <t>etik</t>
-  </si>
-  <si>
-    <t>ethics</t>
-  </si>
-  <si>
-    <t>religionsvetenskap</t>
-  </si>
-  <si>
-    <t>religious studies</t>
-  </si>
-  <si>
-    <t>religionshistoria</t>
-  </si>
-  <si>
-    <t>history of religions</t>
-  </si>
-  <si>
-    <t>idé- och lärdomshistoria</t>
-  </si>
-  <si>
-    <t>history of ideas</t>
-  </si>
-  <si>
-    <t>konst</t>
-  </si>
-  <si>
-    <t>arts</t>
-  </si>
-  <si>
-    <t>bildkonst</t>
-  </si>
-  <si>
-    <t>visual arts</t>
-  </si>
-  <si>
-    <t>musik</t>
-  </si>
-  <si>
-    <t>music</t>
-  </si>
-  <si>
-    <t>litterär gestaltning</t>
-  </si>
-  <si>
-    <t>literary composition</t>
-  </si>
-  <si>
-    <t>scenkonst</t>
-  </si>
-  <si>
-    <t>performing arts</t>
-  </si>
-  <si>
-    <t>arkitektur</t>
-  </si>
-  <si>
-    <t>architecture</t>
-  </si>
-  <si>
-    <t>design</t>
-  </si>
-  <si>
-    <t>konstvetenskap</t>
-  </si>
-  <si>
-    <t>art history</t>
-  </si>
-  <si>
-    <t>musikvetenskap</t>
-  </si>
-  <si>
-    <t>musicology</t>
-  </si>
-  <si>
-    <t>teatervetenskap</t>
-  </si>
-  <si>
-    <t>performing art studies</t>
-  </si>
-  <si>
-    <t>filmvetenskap</t>
-  </si>
-  <si>
-    <t>studies on film</t>
-  </si>
-  <si>
-    <t>annan humaniora</t>
-  </si>
-  <si>
-    <t>other humanities</t>
-  </si>
-  <si>
-    <t>antikvetenskap</t>
-  </si>
-  <si>
-    <t>classical archaeology and ancient history</t>
-  </si>
-  <si>
-    <t>kulturstudier</t>
-  </si>
-  <si>
-    <t>cultural studies</t>
-  </si>
-  <si>
-    <t>etnologi</t>
-  </si>
-  <si>
-    <t>ethnology</t>
-  </si>
-  <si>
-    <t>övrig annan humaniora</t>
-  </si>
-  <si>
-    <t>other humanities not elsewhere specified</t>
-  </si>
-  <si>
-    <t>Label_Sv</t>
-  </si>
-  <si>
-    <t>Label_En</t>
+    <t>other engineering and technologies not elsewhere specified</t>
+  </si>
+  <si>
+    <t>gerontology, specialising in medical and health sciences</t>
   </si>
 </sst>
 </file>
@@ -1865,6 +1859,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2211,18 +2206,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="G253" sqref="G253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2420,7 +2415,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2428,10 +2423,10 @@
         <v>10209</v>
       </c>
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2439,10 +2434,10 @@
         <v>10299</v>
       </c>
       <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,10 +2445,10 @@
         <v>103</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,10 +2456,10 @@
         <v>10301</v>
       </c>
       <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2472,10 +2467,10 @@
         <v>10302</v>
       </c>
       <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2483,10 +2478,10 @@
         <v>10303</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>600</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>599</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2494,10 +2489,10 @@
         <v>10304</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2505,10 +2500,10 @@
         <v>10305</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2516,10 +2511,10 @@
         <v>10306</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2527,10 +2522,10 @@
         <v>10399</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2538,10 +2533,10 @@
         <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2549,10 +2544,10 @@
         <v>10401</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2560,10 +2555,10 @@
         <v>10402</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2571,10 +2566,10 @@
         <v>10403</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2582,10 +2577,10 @@
         <v>10404</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2593,10 +2588,10 @@
         <v>10405</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2604,10 +2599,10 @@
         <v>10406</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2615,10 +2610,10 @@
         <v>10407</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2626,10 +2621,10 @@
         <v>10499</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2637,10 +2632,10 @@
         <v>105</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2648,10 +2643,10 @@
         <v>10501</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2659,10 +2654,10 @@
         <v>10502</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2670,10 +2665,10 @@
         <v>10503</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>588</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2681,10 +2676,10 @@
         <v>10504</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2692,10 +2687,10 @@
         <v>10505</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2703,10 +2698,10 @@
         <v>10506</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2714,10 +2709,10 @@
         <v>10507</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2725,10 +2720,10 @@
         <v>10508</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>590</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2736,10 +2731,10 @@
         <v>10509</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2747,10 +2742,10 @@
         <v>10599</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2758,10 +2753,10 @@
         <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>592</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2769,10 +2764,10 @@
         <v>10601</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2780,10 +2775,10 @@
         <v>10602</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2791,10 +2786,10 @@
         <v>10603</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2802,10 +2797,10 @@
         <v>10604</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2813,10 +2808,10 @@
         <v>10605</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2824,10 +2819,10 @@
         <v>10606</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2835,10 +2830,10 @@
         <v>10607</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2846,10 +2841,10 @@
         <v>10608</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2857,10 +2852,10 @@
         <v>10609</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2868,10 +2863,10 @@
         <v>10610</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2879,10 +2874,10 @@
         <v>10611</v>
       </c>
       <c r="B61" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2890,10 +2885,10 @@
         <v>10612</v>
       </c>
       <c r="B62" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2901,10 +2896,10 @@
         <v>10613</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2912,10 +2907,10 @@
         <v>10614</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2923,10 +2918,10 @@
         <v>10615</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2934,10 +2929,10 @@
         <v>10699</v>
       </c>
       <c r="B66" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2945,10 +2940,10 @@
         <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C67" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2956,10 +2951,10 @@
         <v>10799</v>
       </c>
       <c r="B68" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2967,10 +2962,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C69" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2978,10 +2973,10 @@
         <v>201</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2989,10 +2984,10 @@
         <v>20101</v>
       </c>
       <c r="B71" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C71" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3000,10 +2995,10 @@
         <v>20102</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3011,10 +3006,10 @@
         <v>20103</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C73" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3022,10 +3017,10 @@
         <v>20104</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3033,10 +3028,10 @@
         <v>20105</v>
       </c>
       <c r="B75" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3044,10 +3039,10 @@
         <v>20106</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3055,10 +3050,10 @@
         <v>20107</v>
       </c>
       <c r="B77" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3066,10 +3061,10 @@
         <v>20108</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3077,10 +3072,10 @@
         <v>20199</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C79" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3088,10 +3083,10 @@
         <v>202</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>157</v>
+        <v>602</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3099,10 +3094,10 @@
         <v>20201</v>
       </c>
       <c r="B81" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3110,10 +3105,10 @@
         <v>20202</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C82" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -3121,10 +3116,10 @@
         <v>20203</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C83" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -3132,10 +3127,10 @@
         <v>20204</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3143,10 +3138,10 @@
         <v>20205</v>
       </c>
       <c r="B85" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -3154,10 +3149,10 @@
         <v>20206</v>
       </c>
       <c r="B86" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -3165,10 +3160,10 @@
         <v>20207</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -3176,10 +3171,10 @@
         <v>20299</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>603</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3187,10 +3182,10 @@
         <v>203</v>
       </c>
       <c r="B89" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -3198,10 +3193,10 @@
         <v>20301</v>
       </c>
       <c r="B90" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -3209,10 +3204,10 @@
         <v>20302</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -3220,10 +3215,10 @@
         <v>20303</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -3231,10 +3226,10 @@
         <v>20304</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -3242,10 +3237,10 @@
         <v>20305</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -3253,10 +3248,10 @@
         <v>20306</v>
       </c>
       <c r="B95" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C95" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -3264,10 +3259,10 @@
         <v>20307</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C96" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -3275,10 +3270,10 @@
         <v>20308</v>
       </c>
       <c r="B97" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C97" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3286,10 +3281,10 @@
         <v>20399</v>
       </c>
       <c r="B98" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C98" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3297,10 +3292,10 @@
         <v>204</v>
       </c>
       <c r="B99" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3308,10 +3303,10 @@
         <v>20401</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C100" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3319,10 +3314,10 @@
         <v>20402</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C101" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3330,10 +3325,10 @@
         <v>20403</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C102" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3341,10 +3336,10 @@
         <v>20404</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3352,10 +3347,10 @@
         <v>20499</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -3363,10 +3358,10 @@
         <v>205</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -3374,10 +3369,10 @@
         <v>20501</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C106" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -3385,10 +3380,10 @@
         <v>20502</v>
       </c>
       <c r="B107" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -3396,10 +3391,10 @@
         <v>20503</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>594</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -3407,10 +3402,10 @@
         <v>20504</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -3418,10 +3413,10 @@
         <v>20505</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>598</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -3429,10 +3424,10 @@
         <v>20506</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -3440,10 +3435,10 @@
         <v>20599</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C112" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3451,10 +3446,10 @@
         <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3462,10 +3457,10 @@
         <v>20601</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C114" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3473,10 +3468,10 @@
         <v>20602</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C115" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -3484,10 +3479,10 @@
         <v>20603</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C116" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -3495,10 +3490,10 @@
         <v>20604</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C117" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -3506,10 +3501,10 @@
         <v>20605</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3517,10 +3512,10 @@
         <v>20699</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -3528,10 +3523,10 @@
         <v>207</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C120" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -3539,10 +3534,10 @@
         <v>20701</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C121" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -3550,10 +3545,10 @@
         <v>20702</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3561,10 +3556,10 @@
         <v>20703</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C123" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3572,10 +3567,10 @@
         <v>20704</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3583,10 +3578,10 @@
         <v>20705</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3594,10 +3589,10 @@
         <v>20706</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C126" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3605,10 +3600,10 @@
         <v>20707</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C127" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3616,10 +3611,10 @@
         <v>20799</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C128" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3627,10 +3622,10 @@
         <v>208</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C129" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3638,10 +3633,10 @@
         <v>20801</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C130" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3649,10 +3644,10 @@
         <v>20802</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C131" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3660,10 +3655,10 @@
         <v>20803</v>
       </c>
       <c r="B132" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3671,10 +3666,10 @@
         <v>20804</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C133" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3682,10 +3677,10 @@
         <v>20899</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C134" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -3693,10 +3688,10 @@
         <v>209</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,10 +3699,10 @@
         <v>20901</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C136" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3715,10 +3710,10 @@
         <v>20902</v>
       </c>
       <c r="B137" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="C137" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,10 +3721,10 @@
         <v>20903</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C138" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -3737,10 +3732,10 @@
         <v>20904</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C139" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -3748,10 +3743,10 @@
         <v>20905</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="C140" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,10 +3754,10 @@
         <v>20906</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="C141" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,10 +3765,10 @@
         <v>20907</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="C142" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,10 +3776,10 @@
         <v>20908</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C143" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,10 +3787,10 @@
         <v>20999</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C144" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3803,10 +3798,10 @@
         <v>210</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C145" t="s">
-        <v>287</v>
+        <v>589</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3814,10 +3809,10 @@
         <v>21001</v>
       </c>
       <c r="B146" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="C146" t="s">
-        <v>287</v>
+        <v>589</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3825,10 +3820,10 @@
         <v>211</v>
       </c>
       <c r="B147" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C147" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -3836,10 +3831,10 @@
         <v>21101</v>
       </c>
       <c r="B148" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C148" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -3847,10 +3842,10 @@
         <v>21102</v>
       </c>
       <c r="B149" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C149" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -3858,10 +3853,10 @@
         <v>21103</v>
       </c>
       <c r="B150" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C150" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -3869,10 +3864,10 @@
         <v>21199</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C151" t="s">
-        <v>297</v>
+        <v>605</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -3880,10 +3875,10 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C152" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -3891,10 +3886,10 @@
         <v>301</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C153" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -3902,10 +3897,10 @@
         <v>30101</v>
       </c>
       <c r="B154" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C154" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -3913,10 +3908,10 @@
         <v>30102</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C155" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -3924,10 +3919,10 @@
         <v>30103</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C156" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -3935,10 +3930,10 @@
         <v>30104</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C157" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -3946,10 +3941,10 @@
         <v>30105</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C158" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -3957,10 +3952,10 @@
         <v>30106</v>
       </c>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="C159" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -3968,10 +3963,10 @@
         <v>30107</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C160" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -3979,10 +3974,10 @@
         <v>30108</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C161" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -3990,10 +3985,10 @@
         <v>30109</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C162" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -4001,10 +3996,10 @@
         <v>30110</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C163" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -4012,10 +4007,10 @@
         <v>30199</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C164" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -4023,10 +4018,10 @@
         <v>302</v>
       </c>
       <c r="B165" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C165" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -4034,10 +4029,10 @@
         <v>30201</v>
       </c>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="C166" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -4045,10 +4040,10 @@
         <v>30202</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C167" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -4056,10 +4051,10 @@
         <v>30203</v>
       </c>
       <c r="B168" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C168" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -4067,10 +4062,10 @@
         <v>30204</v>
       </c>
       <c r="B169" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="C169" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4078,10 +4073,10 @@
         <v>30205</v>
       </c>
       <c r="B170" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C170" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -4089,10 +4084,10 @@
         <v>30206</v>
       </c>
       <c r="B171" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C171" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -4100,10 +4095,10 @@
         <v>30207</v>
       </c>
       <c r="B172" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C172" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -4111,10 +4106,10 @@
         <v>30208</v>
       </c>
       <c r="B173" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C173" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4122,10 +4117,10 @@
         <v>30209</v>
       </c>
       <c r="B174" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C174" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -4133,10 +4128,10 @@
         <v>30210</v>
       </c>
       <c r="B175" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C175" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4144,10 +4139,10 @@
         <v>30211</v>
       </c>
       <c r="B176" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C176" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -4155,10 +4150,10 @@
         <v>30212</v>
       </c>
       <c r="B177" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C177" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -4166,10 +4161,10 @@
         <v>30213</v>
       </c>
       <c r="B178" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="C178" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -4177,10 +4172,10 @@
         <v>30214</v>
       </c>
       <c r="B179" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="C179" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -4188,10 +4183,10 @@
         <v>30215</v>
       </c>
       <c r="B180" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C180" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -4199,10 +4194,10 @@
         <v>30216</v>
       </c>
       <c r="B181" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C181" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -4210,10 +4205,10 @@
         <v>30217</v>
       </c>
       <c r="B182" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C182" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -4221,10 +4216,10 @@
         <v>30218</v>
       </c>
       <c r="B183" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C183" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -4232,10 +4227,10 @@
         <v>30219</v>
       </c>
       <c r="B184" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C184" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -4243,10 +4238,10 @@
         <v>30220</v>
       </c>
       <c r="B185" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C185" t="s">
-        <v>365</v>
+        <v>595</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -4254,10 +4249,10 @@
         <v>30221</v>
       </c>
       <c r="B186" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="C186" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -4265,10 +4260,10 @@
         <v>30222</v>
       </c>
       <c r="B187" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="C187" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -4276,10 +4271,10 @@
         <v>30223</v>
       </c>
       <c r="B188" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="C188" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -4287,10 +4282,10 @@
         <v>30224</v>
       </c>
       <c r="B189" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C189" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -4298,10 +4293,10 @@
         <v>30299</v>
       </c>
       <c r="B190" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="C190" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -4309,10 +4304,10 @@
         <v>303</v>
       </c>
       <c r="B191" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C191" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -4320,10 +4315,10 @@
         <v>30301</v>
       </c>
       <c r="B192" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C192" t="s">
-        <v>379</v>
+        <v>596</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -4331,10 +4326,10 @@
         <v>30302</v>
       </c>
       <c r="B193" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="C193" t="s">
-        <v>381</v>
+        <v>585</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -4342,10 +4337,10 @@
         <v>30303</v>
       </c>
       <c r="B194" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C194" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -4353,10 +4348,10 @@
         <v>30304</v>
       </c>
       <c r="B195" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C195" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -4364,10 +4359,10 @@
         <v>30305</v>
       </c>
       <c r="B196" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C196" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -4375,10 +4370,10 @@
         <v>30306</v>
       </c>
       <c r="B197" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C197" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -4386,10 +4381,10 @@
         <v>30307</v>
       </c>
       <c r="B198" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C198" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -4397,10 +4392,10 @@
         <v>30308</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C199" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -4408,10 +4403,10 @@
         <v>30309</v>
       </c>
       <c r="B200" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C200" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4419,10 +4414,10 @@
         <v>30310</v>
       </c>
       <c r="B201" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C201" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -4430,10 +4425,10 @@
         <v>30399</v>
       </c>
       <c r="B202" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C202" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4441,10 +4436,10 @@
         <v>304</v>
       </c>
       <c r="B203" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C203" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4452,10 +4447,10 @@
         <v>30401</v>
       </c>
       <c r="B204" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C204" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -4463,10 +4458,10 @@
         <v>30402</v>
       </c>
       <c r="B205" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C205" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -4474,10 +4469,10 @@
         <v>30403</v>
       </c>
       <c r="B206" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C206" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -4485,10 +4480,10 @@
         <v>30499</v>
       </c>
       <c r="B207" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C207" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -4496,10 +4491,10 @@
         <v>305</v>
       </c>
       <c r="B208" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C208" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -4507,10 +4502,10 @@
         <v>30501</v>
       </c>
       <c r="B209" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C209" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -4518,10 +4513,10 @@
         <v>30502</v>
       </c>
       <c r="B210" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C210" t="s">
-        <v>412</v>
+        <v>606</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -4529,10 +4524,10 @@
         <v>30599</v>
       </c>
       <c r="B211" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C211" t="s">
-        <v>414</v>
+        <v>593</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -4540,10 +4535,10 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="C212" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -4551,10 +4546,10 @@
         <v>401</v>
       </c>
       <c r="B213" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C213" t="s">
-        <v>418</v>
+        <v>584</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -4562,10 +4557,10 @@
         <v>40101</v>
       </c>
       <c r="B214" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="C214" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -4573,10 +4568,10 @@
         <v>40102</v>
       </c>
       <c r="B215" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="C215" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -4584,10 +4579,10 @@
         <v>40103</v>
       </c>
       <c r="B216" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="C216" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -4595,10 +4590,10 @@
         <v>40104</v>
       </c>
       <c r="B217" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="C217" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -4606,10 +4601,10 @@
         <v>40105</v>
       </c>
       <c r="B218" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C218" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -4617,10 +4612,10 @@
         <v>40106</v>
       </c>
       <c r="B219" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="C219" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -4628,10 +4623,10 @@
         <v>40107</v>
       </c>
       <c r="B220" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C220" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -4639,10 +4634,10 @@
         <v>40108</v>
       </c>
       <c r="B221" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="C221" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -4650,10 +4645,10 @@
         <v>402</v>
       </c>
       <c r="B222" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C222" t="s">
-        <v>436</v>
+        <v>604</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -4661,10 +4656,10 @@
         <v>40201</v>
       </c>
       <c r="B223" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="C223" t="s">
-        <v>437</v>
+        <v>597</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4672,10 +4667,10 @@
         <v>403</v>
       </c>
       <c r="B224" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="C224" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -4683,10 +4678,10 @@
         <v>40301</v>
       </c>
       <c r="B225" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="C225" t="s">
-        <v>441</v>
+        <v>421</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -4694,10 +4689,10 @@
         <v>40302</v>
       </c>
       <c r="B226" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="C226" t="s">
-        <v>443</v>
+        <v>423</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -4705,10 +4700,10 @@
         <v>40303</v>
       </c>
       <c r="B227" t="s">
-        <v>444</v>
+        <v>424</v>
       </c>
       <c r="C227" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -4716,10 +4711,10 @@
         <v>40304</v>
       </c>
       <c r="B228" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="C228" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -4727,10 +4722,10 @@
         <v>404</v>
       </c>
       <c r="B229" t="s">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="C229" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -4738,10 +4733,10 @@
         <v>40401</v>
       </c>
       <c r="B230" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="C230" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4749,10 +4744,10 @@
         <v>40402</v>
       </c>
       <c r="B231" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="C231" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -4760,10 +4755,10 @@
         <v>405</v>
       </c>
       <c r="B232" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="C232" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -4771,10 +4766,10 @@
         <v>40501</v>
       </c>
       <c r="B233" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="C233" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -4782,10 +4777,10 @@
         <v>40502</v>
       </c>
       <c r="B234" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="C234" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -4793,10 +4788,10 @@
         <v>40503</v>
       </c>
       <c r="B235" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="C235" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -4804,10 +4799,10 @@
         <v>40504</v>
       </c>
       <c r="B236" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="C236" t="s">
-        <v>463</v>
+        <v>586</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4815,10 +4810,10 @@
         <v>40599</v>
       </c>
       <c r="B237" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="C237" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -4826,10 +4821,10 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
       <c r="C238" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -4837,10 +4832,10 @@
         <v>501</v>
       </c>
       <c r="B239" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="C239" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -4848,10 +4843,10 @@
         <v>50101</v>
       </c>
       <c r="B240" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="C240" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -4859,10 +4854,10 @@
         <v>50102</v>
       </c>
       <c r="B241" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="C241" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -4870,10 +4865,10 @@
         <v>502</v>
       </c>
       <c r="B242" t="s">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="C242" t="s">
-        <v>475</v>
+        <v>454</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -4881,10 +4876,10 @@
         <v>50201</v>
       </c>
       <c r="B243" t="s">
-        <v>476</v>
+        <v>455</v>
       </c>
       <c r="C243" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -4892,10 +4887,10 @@
         <v>50202</v>
       </c>
       <c r="B244" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="C244" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -4903,10 +4898,10 @@
         <v>50203</v>
       </c>
       <c r="B245" t="s">
-        <v>480</v>
+        <v>459</v>
       </c>
       <c r="C245" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -4914,10 +4909,10 @@
         <v>503</v>
       </c>
       <c r="B246" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="C246" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -4925,10 +4920,10 @@
         <v>50301</v>
       </c>
       <c r="B247" t="s">
-        <v>484</v>
+        <v>463</v>
       </c>
       <c r="C247" t="s">
-        <v>485</v>
+        <v>464</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -4936,10 +4931,10 @@
         <v>50302</v>
       </c>
       <c r="B248" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="C248" t="s">
-        <v>487</v>
+        <v>466</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -4947,10 +4942,10 @@
         <v>50303</v>
       </c>
       <c r="B249" t="s">
-        <v>488</v>
+        <v>467</v>
       </c>
       <c r="C249" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -4958,10 +4953,10 @@
         <v>50304</v>
       </c>
       <c r="B250" t="s">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="C250" t="s">
-        <v>491</v>
+        <v>470</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -4969,10 +4964,10 @@
         <v>504</v>
       </c>
       <c r="B251" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="C251" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -4980,10 +4975,10 @@
         <v>50401</v>
       </c>
       <c r="B252" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="C252" t="s">
-        <v>493</v>
+        <v>472</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -4991,10 +4986,10 @@
         <v>50402</v>
       </c>
       <c r="B253" t="s">
-        <v>494</v>
+        <v>473</v>
       </c>
       <c r="C253" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -5002,10 +4997,10 @@
         <v>50403</v>
       </c>
       <c r="B254" t="s">
-        <v>496</v>
+        <v>475</v>
       </c>
       <c r="C254" t="s">
-        <v>497</v>
+        <v>476</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -5013,10 +5008,10 @@
         <v>50404</v>
       </c>
       <c r="B255" t="s">
-        <v>498</v>
+        <v>477</v>
       </c>
       <c r="C255" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -5024,10 +5019,10 @@
         <v>505</v>
       </c>
       <c r="B256" t="s">
-        <v>500</v>
+        <v>479</v>
       </c>
       <c r="C256" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -5035,10 +5030,10 @@
         <v>50501</v>
       </c>
       <c r="B257" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="C257" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -5046,10 +5041,10 @@
         <v>50502</v>
       </c>
       <c r="B258" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="C258" t="s">
-        <v>505</v>
+        <v>484</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -5057,10 +5052,10 @@
         <v>506</v>
       </c>
       <c r="B259" t="s">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="C259" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -5068,10 +5063,10 @@
         <v>50601</v>
       </c>
       <c r="B260" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="C260" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -5079,10 +5074,10 @@
         <v>50602</v>
       </c>
       <c r="B261" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="C261" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -5090,10 +5085,10 @@
         <v>50603</v>
       </c>
       <c r="B262" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="C262" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -5101,10 +5096,10 @@
         <v>507</v>
       </c>
       <c r="B263" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
       <c r="C263" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -5112,10 +5107,10 @@
         <v>50701</v>
       </c>
       <c r="B264" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="C264" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -5123,10 +5118,10 @@
         <v>50702</v>
       </c>
       <c r="B265" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="C265" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -5134,10 +5129,10 @@
         <v>508</v>
       </c>
       <c r="B266" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
       <c r="C266" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -5145,10 +5140,10 @@
         <v>50801</v>
       </c>
       <c r="B267" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="C267" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -5156,10 +5151,10 @@
         <v>50802</v>
       </c>
       <c r="B268" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="C268" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -5167,10 +5162,10 @@
         <v>50803</v>
       </c>
       <c r="B269" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="C269" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -5178,10 +5173,10 @@
         <v>50804</v>
       </c>
       <c r="B270" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="C270" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -5189,10 +5184,10 @@
         <v>50805</v>
       </c>
       <c r="B271" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="C271" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -5200,10 +5195,10 @@
         <v>509</v>
       </c>
       <c r="B272" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C272" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -5211,10 +5206,10 @@
         <v>50901</v>
       </c>
       <c r="B273" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C273" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -5222,10 +5217,10 @@
         <v>50902</v>
       </c>
       <c r="B274" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="C274" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -5233,10 +5228,10 @@
         <v>50903</v>
       </c>
       <c r="B275" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C275" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -5244,10 +5239,10 @@
         <v>50904</v>
       </c>
       <c r="B276" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C276" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -5255,10 +5250,10 @@
         <v>50999</v>
       </c>
       <c r="B277" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C277" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -5266,10 +5261,10 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C278" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -5277,10 +5272,10 @@
         <v>601</v>
       </c>
       <c r="B279" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C279" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -5288,10 +5283,10 @@
         <v>60101</v>
       </c>
       <c r="B280" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C280" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -5299,10 +5294,10 @@
         <v>60102</v>
       </c>
       <c r="B281" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="C281" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -5310,10 +5305,10 @@
         <v>60103</v>
       </c>
       <c r="B282" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C282" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -5321,10 +5316,10 @@
         <v>602</v>
       </c>
       <c r="B283" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="C283" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -5332,10 +5327,10 @@
         <v>60201</v>
       </c>
       <c r="B284" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="C284" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -5343,10 +5338,10 @@
         <v>60202</v>
       </c>
       <c r="B285" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="C285" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -5354,10 +5349,10 @@
         <v>60203</v>
       </c>
       <c r="B286" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C286" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -5365,10 +5360,10 @@
         <v>60204</v>
       </c>
       <c r="B287" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="C287" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -5376,10 +5371,10 @@
         <v>603</v>
       </c>
       <c r="B288" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C288" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -5387,10 +5382,10 @@
         <v>60301</v>
       </c>
       <c r="B289" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="C289" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -5398,10 +5393,10 @@
         <v>60302</v>
       </c>
       <c r="B290" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="C290" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -5409,10 +5404,10 @@
         <v>60303</v>
       </c>
       <c r="B291" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="C291" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -5420,10 +5415,10 @@
         <v>60304</v>
       </c>
       <c r="B292" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="C292" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -5431,10 +5426,10 @@
         <v>60305</v>
       </c>
       <c r="B293" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="C293" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -5442,10 +5437,10 @@
         <v>604</v>
       </c>
       <c r="B294" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="C294" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -5453,10 +5448,10 @@
         <v>60401</v>
       </c>
       <c r="B295" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="C295" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -5464,10 +5459,10 @@
         <v>60402</v>
       </c>
       <c r="B296" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="C296" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -5475,10 +5470,10 @@
         <v>60403</v>
       </c>
       <c r="B297" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="C297" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -5486,10 +5481,10 @@
         <v>60404</v>
       </c>
       <c r="B298" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="C298" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -5497,10 +5492,10 @@
         <v>60405</v>
       </c>
       <c r="B299" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="C299" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -5508,10 +5503,10 @@
         <v>60406</v>
       </c>
       <c r="B300" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="C300" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -5519,10 +5514,10 @@
         <v>60407</v>
       </c>
       <c r="B301" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="C301" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -5530,10 +5525,10 @@
         <v>60408</v>
       </c>
       <c r="B302" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="C302" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -5541,10 +5536,10 @@
         <v>60409</v>
       </c>
       <c r="B303" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="C303" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -5552,10 +5547,10 @@
         <v>60410</v>
       </c>
       <c r="B304" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="C304" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -5563,10 +5558,10 @@
         <v>605</v>
       </c>
       <c r="B305" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="C305" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -5574,10 +5569,10 @@
         <v>60501</v>
       </c>
       <c r="B306" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C306" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -5585,10 +5580,10 @@
         <v>60502</v>
       </c>
       <c r="B307" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="C307" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -5596,10 +5591,10 @@
         <v>60503</v>
       </c>
       <c r="B308" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="C308" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -5607,10 +5602,10 @@
         <v>60599</v>
       </c>
       <c r="B309" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="C309" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw_data/SCB_classifications.xlsx
+++ b/data/raw_data/SCB_classifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evaengel/comparison_NLP_classification_models/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BC08EC-977F-F34D-9B0B-1A189548A665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C61E0A-92DA-0D4F-B7B8-3CD514DAE23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="48080" yWindow="-16180" windowWidth="19120" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>astronomi,  astrofysik och kosmologi</t>
   </si>
   <si>
-    <t>astronomy,  astrophysics and cosmology</t>
-  </si>
-  <si>
     <t>acceleratorfysik och instrumentering</t>
   </si>
   <si>
@@ -1009,9 +1006,6 @@
     <t>radiologi och bildbehandling</t>
   </si>
   <si>
-    <t>radiology,  nuclear medicine and medical imaging</t>
-  </si>
-  <si>
     <t>infektionsmedicin</t>
   </si>
   <si>
@@ -1183,9 +1177,6 @@
     <t>biomedicinsk laboratorievetenskap / teknologi</t>
   </si>
   <si>
-    <t>biomedical laboratory science / technology</t>
-  </si>
-  <si>
     <t>biomaterialvetenskap</t>
   </si>
   <si>
@@ -1768,12 +1759,6 @@
     <t>other humanities not elsewhere specified</t>
   </si>
   <si>
-    <t>Label_Sv</t>
-  </si>
-  <si>
-    <t>Label_En</t>
-  </si>
-  <si>
     <t>agriculture, forestry and fisheries</t>
   </si>
   <si>
@@ -1841,6 +1826,21 @@
   </si>
   <si>
     <t>gerontology, specialising in medical and health sciences</t>
+  </si>
+  <si>
+    <t>radiology, nuclear medicine and medical imaging</t>
+  </si>
+  <si>
+    <t>biomedical laboratory science/technology</t>
+  </si>
+  <si>
+    <t>astronomy, astrophysics and cosmology</t>
+  </si>
+  <si>
+    <t>Label_sv</t>
+  </si>
+  <si>
+    <t>Label_en</t>
   </si>
 </sst>
 </file>
@@ -2206,18 +2206,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="G253" sqref="G253"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>582</v>
+        <v>605</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2415,7 +2415,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2478,10 +2478,10 @@
         <v>10303</v>
       </c>
       <c r="B25" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C25" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2503,7 +2503,7 @@
         <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2511,10 +2511,10 @@
         <v>10306</v>
       </c>
       <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
         <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2522,10 +2522,10 @@
         <v>10399</v>
       </c>
       <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
         <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2533,10 +2533,10 @@
         <v>104</v>
       </c>
       <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
         <v>53</v>
-      </c>
-      <c r="C30" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2544,10 +2544,10 @@
         <v>10401</v>
       </c>
       <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
         <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2555,10 +2555,10 @@
         <v>10402</v>
       </c>
       <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
         <v>57</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2566,10 +2566,10 @@
         <v>10403</v>
       </c>
       <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
         <v>59</v>
-      </c>
-      <c r="C33" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2577,10 +2577,10 @@
         <v>10404</v>
       </c>
       <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
         <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2588,10 +2588,10 @@
         <v>10405</v>
       </c>
       <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
         <v>63</v>
-      </c>
-      <c r="C35" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2599,10 +2599,10 @@
         <v>10406</v>
       </c>
       <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
         <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2610,10 +2610,10 @@
         <v>10407</v>
       </c>
       <c r="B37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
         <v>67</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2621,10 +2621,10 @@
         <v>10499</v>
       </c>
       <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
         <v>69</v>
-      </c>
-      <c r="C38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2632,10 +2632,10 @@
         <v>105</v>
       </c>
       <c r="B39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
         <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2643,10 +2643,10 @@
         <v>10501</v>
       </c>
       <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
         <v>73</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2654,10 +2654,10 @@
         <v>10502</v>
       </c>
       <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
         <v>75</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2665,10 +2665,10 @@
         <v>10503</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2676,10 +2676,10 @@
         <v>10504</v>
       </c>
       <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
         <v>78</v>
-      </c>
-      <c r="C43" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2687,10 +2687,10 @@
         <v>10505</v>
       </c>
       <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2698,10 +2698,10 @@
         <v>10506</v>
       </c>
       <c r="B45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" t="s">
         <v>82</v>
-      </c>
-      <c r="C45" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2709,10 +2709,10 @@
         <v>10507</v>
       </c>
       <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
         <v>84</v>
-      </c>
-      <c r="C46" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2720,10 +2720,10 @@
         <v>10508</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2731,10 +2731,10 @@
         <v>10509</v>
       </c>
       <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
         <v>87</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2742,10 +2742,10 @@
         <v>10599</v>
       </c>
       <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
         <v>89</v>
-      </c>
-      <c r="C49" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2753,10 +2753,10 @@
         <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2764,10 +2764,10 @@
         <v>10601</v>
       </c>
       <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2775,10 +2775,10 @@
         <v>10602</v>
       </c>
       <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
         <v>94</v>
-      </c>
-      <c r="C52" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2786,10 +2786,10 @@
         <v>10603</v>
       </c>
       <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
         <v>96</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2797,10 +2797,10 @@
         <v>10604</v>
       </c>
       <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" t="s">
         <v>98</v>
-      </c>
-      <c r="C54" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2808,10 +2808,10 @@
         <v>10605</v>
       </c>
       <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
         <v>100</v>
-      </c>
-      <c r="C55" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2819,10 +2819,10 @@
         <v>10606</v>
       </c>
       <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
         <v>102</v>
-      </c>
-      <c r="C56" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2830,10 +2830,10 @@
         <v>10607</v>
       </c>
       <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
         <v>104</v>
-      </c>
-      <c r="C57" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2841,10 +2841,10 @@
         <v>10608</v>
       </c>
       <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
         <v>106</v>
-      </c>
-      <c r="C58" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2852,10 +2852,10 @@
         <v>10609</v>
       </c>
       <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
         <v>108</v>
-      </c>
-      <c r="C59" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2863,10 +2863,10 @@
         <v>10610</v>
       </c>
       <c r="B60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" t="s">
         <v>110</v>
-      </c>
-      <c r="C60" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>10611</v>
       </c>
       <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
         <v>112</v>
-      </c>
-      <c r="C61" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2885,10 +2885,10 @@
         <v>10612</v>
       </c>
       <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62" t="s">
         <v>114</v>
-      </c>
-      <c r="C62" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2896,10 +2896,10 @@
         <v>10613</v>
       </c>
       <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
         <v>116</v>
-      </c>
-      <c r="C63" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2907,10 +2907,10 @@
         <v>10614</v>
       </c>
       <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" t="s">
         <v>118</v>
-      </c>
-      <c r="C64" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2918,10 +2918,10 @@
         <v>10615</v>
       </c>
       <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" t="s">
         <v>120</v>
-      </c>
-      <c r="C65" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2929,10 +2929,10 @@
         <v>10699</v>
       </c>
       <c r="B66" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" t="s">
         <v>122</v>
-      </c>
-      <c r="C66" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2940,10 +2940,10 @@
         <v>107</v>
       </c>
       <c r="B67" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" t="s">
         <v>124</v>
-      </c>
-      <c r="C67" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2951,10 +2951,10 @@
         <v>10799</v>
       </c>
       <c r="B68" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" t="s">
         <v>126</v>
-      </c>
-      <c r="C68" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2962,10 +2962,10 @@
         <v>2</v>
       </c>
       <c r="B69" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" t="s">
         <v>128</v>
-      </c>
-      <c r="C69" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2973,10 +2973,10 @@
         <v>201</v>
       </c>
       <c r="B70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" t="s">
         <v>130</v>
-      </c>
-      <c r="C70" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2984,10 +2984,10 @@
         <v>20101</v>
       </c>
       <c r="B71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" t="s">
         <v>132</v>
-      </c>
-      <c r="C71" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2995,10 +2995,10 @@
         <v>20102</v>
       </c>
       <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
         <v>134</v>
-      </c>
-      <c r="C72" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3006,10 +3006,10 @@
         <v>20103</v>
       </c>
       <c r="B73" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
         <v>136</v>
-      </c>
-      <c r="C73" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3017,10 +3017,10 @@
         <v>20104</v>
       </c>
       <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74" t="s">
         <v>138</v>
-      </c>
-      <c r="C74" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3028,10 +3028,10 @@
         <v>20105</v>
       </c>
       <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
         <v>140</v>
-      </c>
-      <c r="C75" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3039,10 +3039,10 @@
         <v>20106</v>
       </c>
       <c r="B76" t="s">
+        <v>141</v>
+      </c>
+      <c r="C76" t="s">
         <v>142</v>
-      </c>
-      <c r="C76" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3050,10 +3050,10 @@
         <v>20107</v>
       </c>
       <c r="B77" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" t="s">
         <v>144</v>
-      </c>
-      <c r="C77" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3061,10 +3061,10 @@
         <v>20108</v>
       </c>
       <c r="B78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C78" t="s">
         <v>146</v>
-      </c>
-      <c r="C78" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3072,10 +3072,10 @@
         <v>20199</v>
       </c>
       <c r="B79" t="s">
+        <v>147</v>
+      </c>
+      <c r="C79" t="s">
         <v>148</v>
-      </c>
-      <c r="C79" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3083,10 +3083,10 @@
         <v>202</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3094,10 +3094,10 @@
         <v>20201</v>
       </c>
       <c r="B81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" t="s">
         <v>151</v>
-      </c>
-      <c r="C81" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3105,10 +3105,10 @@
         <v>20202</v>
       </c>
       <c r="B82" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" t="s">
         <v>153</v>
-      </c>
-      <c r="C82" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -3116,10 +3116,10 @@
         <v>20203</v>
       </c>
       <c r="B83" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" t="s">
         <v>155</v>
-      </c>
-      <c r="C83" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -3127,10 +3127,10 @@
         <v>20204</v>
       </c>
       <c r="B84" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" t="s">
         <v>157</v>
-      </c>
-      <c r="C84" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -3138,10 +3138,10 @@
         <v>20205</v>
       </c>
       <c r="B85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" t="s">
         <v>159</v>
-      </c>
-      <c r="C85" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -3149,10 +3149,10 @@
         <v>20206</v>
       </c>
       <c r="B86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" t="s">
         <v>161</v>
-      </c>
-      <c r="C86" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -3160,10 +3160,10 @@
         <v>20207</v>
       </c>
       <c r="B87" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" t="s">
         <v>163</v>
-      </c>
-      <c r="C87" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -3171,10 +3171,10 @@
         <v>20299</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C88" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -3182,10 +3182,10 @@
         <v>203</v>
       </c>
       <c r="B89" t="s">
+        <v>165</v>
+      </c>
+      <c r="C89" t="s">
         <v>166</v>
-      </c>
-      <c r="C89" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -3193,10 +3193,10 @@
         <v>20301</v>
       </c>
       <c r="B90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" t="s">
         <v>168</v>
-      </c>
-      <c r="C90" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -3204,10 +3204,10 @@
         <v>20302</v>
       </c>
       <c r="B91" t="s">
+        <v>169</v>
+      </c>
+      <c r="C91" t="s">
         <v>170</v>
-      </c>
-      <c r="C91" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -3215,10 +3215,10 @@
         <v>20303</v>
       </c>
       <c r="B92" t="s">
+        <v>171</v>
+      </c>
+      <c r="C92" t="s">
         <v>172</v>
-      </c>
-      <c r="C92" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -3226,10 +3226,10 @@
         <v>20304</v>
       </c>
       <c r="B93" t="s">
+        <v>173</v>
+      </c>
+      <c r="C93" t="s">
         <v>174</v>
-      </c>
-      <c r="C93" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -3237,10 +3237,10 @@
         <v>20305</v>
       </c>
       <c r="B94" t="s">
+        <v>175</v>
+      </c>
+      <c r="C94" t="s">
         <v>176</v>
-      </c>
-      <c r="C94" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -3248,10 +3248,10 @@
         <v>20306</v>
       </c>
       <c r="B95" t="s">
+        <v>177</v>
+      </c>
+      <c r="C95" t="s">
         <v>178</v>
-      </c>
-      <c r="C95" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -3259,10 +3259,10 @@
         <v>20307</v>
       </c>
       <c r="B96" t="s">
+        <v>179</v>
+      </c>
+      <c r="C96" t="s">
         <v>180</v>
-      </c>
-      <c r="C96" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -3270,10 +3270,10 @@
         <v>20308</v>
       </c>
       <c r="B97" t="s">
+        <v>181</v>
+      </c>
+      <c r="C97" t="s">
         <v>182</v>
-      </c>
-      <c r="C97" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -3281,10 +3281,10 @@
         <v>20399</v>
       </c>
       <c r="B98" t="s">
+        <v>183</v>
+      </c>
+      <c r="C98" t="s">
         <v>184</v>
-      </c>
-      <c r="C98" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -3292,10 +3292,10 @@
         <v>204</v>
       </c>
       <c r="B99" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" t="s">
         <v>186</v>
-      </c>
-      <c r="C99" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -3303,10 +3303,10 @@
         <v>20401</v>
       </c>
       <c r="B100" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" t="s">
         <v>188</v>
-      </c>
-      <c r="C100" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -3314,10 +3314,10 @@
         <v>20402</v>
       </c>
       <c r="B101" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" t="s">
         <v>190</v>
-      </c>
-      <c r="C101" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -3325,10 +3325,10 @@
         <v>20403</v>
       </c>
       <c r="B102" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" t="s">
         <v>192</v>
-      </c>
-      <c r="C102" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -3336,10 +3336,10 @@
         <v>20404</v>
       </c>
       <c r="B103" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" t="s">
         <v>194</v>
-      </c>
-      <c r="C103" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -3347,10 +3347,10 @@
         <v>20499</v>
       </c>
       <c r="B104" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" t="s">
         <v>196</v>
-      </c>
-      <c r="C104" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -3358,10 +3358,10 @@
         <v>205</v>
       </c>
       <c r="B105" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" t="s">
         <v>198</v>
-      </c>
-      <c r="C105" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -3369,10 +3369,10 @@
         <v>20501</v>
       </c>
       <c r="B106" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" t="s">
         <v>200</v>
-      </c>
-      <c r="C106" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -3380,10 +3380,10 @@
         <v>20502</v>
       </c>
       <c r="B107" t="s">
+        <v>201</v>
+      </c>
+      <c r="C107" t="s">
         <v>202</v>
-      </c>
-      <c r="C107" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -3391,10 +3391,10 @@
         <v>20503</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C108" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -3402,10 +3402,10 @@
         <v>20504</v>
       </c>
       <c r="B109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" t="s">
         <v>205</v>
-      </c>
-      <c r="C109" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -3413,10 +3413,10 @@
         <v>20505</v>
       </c>
       <c r="B110" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C110" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -3424,10 +3424,10 @@
         <v>20506</v>
       </c>
       <c r="B111" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" t="s">
         <v>208</v>
-      </c>
-      <c r="C111" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -3435,10 +3435,10 @@
         <v>20599</v>
       </c>
       <c r="B112" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" t="s">
         <v>210</v>
-      </c>
-      <c r="C112" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -3446,10 +3446,10 @@
         <v>206</v>
       </c>
       <c r="B113" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" t="s">
         <v>212</v>
-      </c>
-      <c r="C113" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -3457,10 +3457,10 @@
         <v>20601</v>
       </c>
       <c r="B114" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" t="s">
         <v>214</v>
-      </c>
-      <c r="C114" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -3468,10 +3468,10 @@
         <v>20602</v>
       </c>
       <c r="B115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" t="s">
         <v>216</v>
-      </c>
-      <c r="C115" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -3479,10 +3479,10 @@
         <v>20603</v>
       </c>
       <c r="B116" t="s">
+        <v>217</v>
+      </c>
+      <c r="C116" t="s">
         <v>218</v>
-      </c>
-      <c r="C116" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -3490,10 +3490,10 @@
         <v>20604</v>
       </c>
       <c r="B117" t="s">
+        <v>219</v>
+      </c>
+      <c r="C117" t="s">
         <v>220</v>
-      </c>
-      <c r="C117" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -3501,10 +3501,10 @@
         <v>20605</v>
       </c>
       <c r="B118" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" t="s">
         <v>222</v>
-      </c>
-      <c r="C118" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -3512,10 +3512,10 @@
         <v>20699</v>
       </c>
       <c r="B119" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" t="s">
         <v>224</v>
-      </c>
-      <c r="C119" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -3523,10 +3523,10 @@
         <v>207</v>
       </c>
       <c r="B120" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" t="s">
         <v>226</v>
-      </c>
-      <c r="C120" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -3534,10 +3534,10 @@
         <v>20701</v>
       </c>
       <c r="B121" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" t="s">
         <v>228</v>
-      </c>
-      <c r="C121" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -3545,10 +3545,10 @@
         <v>20702</v>
       </c>
       <c r="B122" t="s">
+        <v>229</v>
+      </c>
+      <c r="C122" t="s">
         <v>230</v>
-      </c>
-      <c r="C122" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -3556,10 +3556,10 @@
         <v>20703</v>
       </c>
       <c r="B123" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" t="s">
         <v>232</v>
-      </c>
-      <c r="C123" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3567,10 +3567,10 @@
         <v>20704</v>
       </c>
       <c r="B124" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" t="s">
         <v>234</v>
-      </c>
-      <c r="C124" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3578,10 +3578,10 @@
         <v>20705</v>
       </c>
       <c r="B125" t="s">
+        <v>235</v>
+      </c>
+      <c r="C125" t="s">
         <v>236</v>
-      </c>
-      <c r="C125" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3589,10 +3589,10 @@
         <v>20706</v>
       </c>
       <c r="B126" t="s">
+        <v>237</v>
+      </c>
+      <c r="C126" t="s">
         <v>238</v>
-      </c>
-      <c r="C126" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3600,10 +3600,10 @@
         <v>20707</v>
       </c>
       <c r="B127" t="s">
+        <v>239</v>
+      </c>
+      <c r="C127" t="s">
         <v>240</v>
-      </c>
-      <c r="C127" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3611,10 +3611,10 @@
         <v>20799</v>
       </c>
       <c r="B128" t="s">
+        <v>241</v>
+      </c>
+      <c r="C128" t="s">
         <v>242</v>
-      </c>
-      <c r="C128" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3622,10 +3622,10 @@
         <v>208</v>
       </c>
       <c r="B129" t="s">
+        <v>243</v>
+      </c>
+      <c r="C129" t="s">
         <v>244</v>
-      </c>
-      <c r="C129" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3633,10 +3633,10 @@
         <v>20801</v>
       </c>
       <c r="B130" t="s">
+        <v>245</v>
+      </c>
+      <c r="C130" t="s">
         <v>246</v>
-      </c>
-      <c r="C130" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3644,10 +3644,10 @@
         <v>20802</v>
       </c>
       <c r="B131" t="s">
+        <v>247</v>
+      </c>
+      <c r="C131" t="s">
         <v>248</v>
-      </c>
-      <c r="C131" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3655,10 +3655,10 @@
         <v>20803</v>
       </c>
       <c r="B132" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" t="s">
         <v>250</v>
-      </c>
-      <c r="C132" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3666,10 +3666,10 @@
         <v>20804</v>
       </c>
       <c r="B133" t="s">
+        <v>251</v>
+      </c>
+      <c r="C133" t="s">
         <v>252</v>
-      </c>
-      <c r="C133" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3677,10 +3677,10 @@
         <v>20899</v>
       </c>
       <c r="B134" t="s">
+        <v>253</v>
+      </c>
+      <c r="C134" t="s">
         <v>254</v>
-      </c>
-      <c r="C134" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -3688,10 +3688,10 @@
         <v>209</v>
       </c>
       <c r="B135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C135" t="s">
         <v>256</v>
-      </c>
-      <c r="C135" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3699,10 +3699,10 @@
         <v>20901</v>
       </c>
       <c r="B136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C136" t="s">
         <v>258</v>
-      </c>
-      <c r="C136" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3710,10 +3710,10 @@
         <v>20902</v>
       </c>
       <c r="B137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C137" t="s">
         <v>260</v>
-      </c>
-      <c r="C137" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3721,10 +3721,10 @@
         <v>20903</v>
       </c>
       <c r="B138" t="s">
+        <v>261</v>
+      </c>
+      <c r="C138" t="s">
         <v>262</v>
-      </c>
-      <c r="C138" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -3732,10 +3732,10 @@
         <v>20904</v>
       </c>
       <c r="B139" t="s">
+        <v>263</v>
+      </c>
+      <c r="C139" t="s">
         <v>264</v>
-      </c>
-      <c r="C139" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -3743,10 +3743,10 @@
         <v>20905</v>
       </c>
       <c r="B140" t="s">
+        <v>265</v>
+      </c>
+      <c r="C140" t="s">
         <v>266</v>
-      </c>
-      <c r="C140" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -3754,10 +3754,10 @@
         <v>20906</v>
       </c>
       <c r="B141" t="s">
+        <v>267</v>
+      </c>
+      <c r="C141" t="s">
         <v>268</v>
-      </c>
-      <c r="C141" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -3765,10 +3765,10 @@
         <v>20907</v>
       </c>
       <c r="B142" t="s">
+        <v>269</v>
+      </c>
+      <c r="C142" t="s">
         <v>270</v>
-      </c>
-      <c r="C142" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -3776,10 +3776,10 @@
         <v>20908</v>
       </c>
       <c r="B143" t="s">
+        <v>271</v>
+      </c>
+      <c r="C143" t="s">
         <v>272</v>
-      </c>
-      <c r="C143" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -3787,10 +3787,10 @@
         <v>20999</v>
       </c>
       <c r="B144" t="s">
+        <v>273</v>
+      </c>
+      <c r="C144" t="s">
         <v>274</v>
-      </c>
-      <c r="C144" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3798,10 +3798,10 @@
         <v>210</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C145" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3809,10 +3809,10 @@
         <v>21001</v>
       </c>
       <c r="B146" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C146" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3820,10 +3820,10 @@
         <v>211</v>
       </c>
       <c r="B147" t="s">
+        <v>276</v>
+      </c>
+      <c r="C147" t="s">
         <v>277</v>
-      </c>
-      <c r="C147" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -3831,10 +3831,10 @@
         <v>21101</v>
       </c>
       <c r="B148" t="s">
+        <v>278</v>
+      </c>
+      <c r="C148" t="s">
         <v>279</v>
-      </c>
-      <c r="C148" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -3842,10 +3842,10 @@
         <v>21102</v>
       </c>
       <c r="B149" t="s">
+        <v>280</v>
+      </c>
+      <c r="C149" t="s">
         <v>281</v>
-      </c>
-      <c r="C149" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -3853,10 +3853,10 @@
         <v>21103</v>
       </c>
       <c r="B150" t="s">
+        <v>282</v>
+      </c>
+      <c r="C150" t="s">
         <v>283</v>
-      </c>
-      <c r="C150" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -3864,10 +3864,10 @@
         <v>21199</v>
       </c>
       <c r="B151" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C151" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -3875,10 +3875,10 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
+        <v>285</v>
+      </c>
+      <c r="C152" t="s">
         <v>286</v>
-      </c>
-      <c r="C152" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -3886,10 +3886,10 @@
         <v>301</v>
       </c>
       <c r="B153" t="s">
+        <v>287</v>
+      </c>
+      <c r="C153" t="s">
         <v>288</v>
-      </c>
-      <c r="C153" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -3897,10 +3897,10 @@
         <v>30101</v>
       </c>
       <c r="B154" t="s">
+        <v>289</v>
+      </c>
+      <c r="C154" t="s">
         <v>290</v>
-      </c>
-      <c r="C154" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -3908,10 +3908,10 @@
         <v>30102</v>
       </c>
       <c r="B155" t="s">
+        <v>291</v>
+      </c>
+      <c r="C155" t="s">
         <v>292</v>
-      </c>
-      <c r="C155" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -3919,10 +3919,10 @@
         <v>30103</v>
       </c>
       <c r="B156" t="s">
+        <v>293</v>
+      </c>
+      <c r="C156" t="s">
         <v>294</v>
-      </c>
-      <c r="C156" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -3930,10 +3930,10 @@
         <v>30104</v>
       </c>
       <c r="B157" t="s">
+        <v>295</v>
+      </c>
+      <c r="C157" t="s">
         <v>296</v>
-      </c>
-      <c r="C157" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -3941,10 +3941,10 @@
         <v>30105</v>
       </c>
       <c r="B158" t="s">
+        <v>297</v>
+      </c>
+      <c r="C158" t="s">
         <v>298</v>
-      </c>
-      <c r="C158" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -3952,10 +3952,10 @@
         <v>30106</v>
       </c>
       <c r="B159" t="s">
+        <v>299</v>
+      </c>
+      <c r="C159" t="s">
         <v>300</v>
-      </c>
-      <c r="C159" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -3963,10 +3963,10 @@
         <v>30107</v>
       </c>
       <c r="B160" t="s">
+        <v>301</v>
+      </c>
+      <c r="C160" t="s">
         <v>302</v>
-      </c>
-      <c r="C160" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -3974,10 +3974,10 @@
         <v>30108</v>
       </c>
       <c r="B161" t="s">
+        <v>303</v>
+      </c>
+      <c r="C161" t="s">
         <v>304</v>
-      </c>
-      <c r="C161" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -3985,10 +3985,10 @@
         <v>30109</v>
       </c>
       <c r="B162" t="s">
+        <v>305</v>
+      </c>
+      <c r="C162" t="s">
         <v>306</v>
-      </c>
-      <c r="C162" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -3996,10 +3996,10 @@
         <v>30110</v>
       </c>
       <c r="B163" t="s">
+        <v>307</v>
+      </c>
+      <c r="C163" t="s">
         <v>308</v>
-      </c>
-      <c r="C163" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -4007,10 +4007,10 @@
         <v>30199</v>
       </c>
       <c r="B164" t="s">
+        <v>309</v>
+      </c>
+      <c r="C164" t="s">
         <v>310</v>
-      </c>
-      <c r="C164" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -4018,10 +4018,10 @@
         <v>302</v>
       </c>
       <c r="B165" t="s">
+        <v>311</v>
+      </c>
+      <c r="C165" t="s">
         <v>312</v>
-      </c>
-      <c r="C165" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -4029,10 +4029,10 @@
         <v>30201</v>
       </c>
       <c r="B166" t="s">
+        <v>313</v>
+      </c>
+      <c r="C166" t="s">
         <v>314</v>
-      </c>
-      <c r="C166" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -4040,10 +4040,10 @@
         <v>30202</v>
       </c>
       <c r="B167" t="s">
+        <v>315</v>
+      </c>
+      <c r="C167" t="s">
         <v>316</v>
-      </c>
-      <c r="C167" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -4051,10 +4051,10 @@
         <v>30203</v>
       </c>
       <c r="B168" t="s">
+        <v>317</v>
+      </c>
+      <c r="C168" t="s">
         <v>318</v>
-      </c>
-      <c r="C168" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -4062,10 +4062,10 @@
         <v>30204</v>
       </c>
       <c r="B169" t="s">
+        <v>319</v>
+      </c>
+      <c r="C169" t="s">
         <v>320</v>
-      </c>
-      <c r="C169" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4073,10 +4073,10 @@
         <v>30205</v>
       </c>
       <c r="B170" t="s">
+        <v>321</v>
+      </c>
+      <c r="C170" t="s">
         <v>322</v>
-      </c>
-      <c r="C170" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -4084,10 +4084,10 @@
         <v>30206</v>
       </c>
       <c r="B171" t="s">
+        <v>323</v>
+      </c>
+      <c r="C171" t="s">
         <v>324</v>
-      </c>
-      <c r="C171" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -4095,10 +4095,10 @@
         <v>30207</v>
       </c>
       <c r="B172" t="s">
+        <v>325</v>
+      </c>
+      <c r="C172" t="s">
         <v>326</v>
-      </c>
-      <c r="C172" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -4106,10 +4106,10 @@
         <v>30208</v>
       </c>
       <c r="B173" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C173" t="s">
-        <v>329</v>
+        <v>602</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4117,10 +4117,10 @@
         <v>30209</v>
       </c>
       <c r="B174" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -4128,10 +4128,10 @@
         <v>30210</v>
       </c>
       <c r="B175" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C175" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4139,10 +4139,10 @@
         <v>30211</v>
       </c>
       <c r="B176" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C176" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -4150,10 +4150,10 @@
         <v>30212</v>
       </c>
       <c r="B177" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C177" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -4161,10 +4161,10 @@
         <v>30213</v>
       </c>
       <c r="B178" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C178" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -4172,10 +4172,10 @@
         <v>30214</v>
       </c>
       <c r="B179" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C179" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -4183,10 +4183,10 @@
         <v>30215</v>
       </c>
       <c r="B180" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C180" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -4194,10 +4194,10 @@
         <v>30216</v>
       </c>
       <c r="B181" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C181" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -4205,10 +4205,10 @@
         <v>30217</v>
       </c>
       <c r="B182" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C182" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -4216,10 +4216,10 @@
         <v>30218</v>
       </c>
       <c r="B183" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C183" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -4227,10 +4227,10 @@
         <v>30219</v>
       </c>
       <c r="B184" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C184" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -4238,10 +4238,10 @@
         <v>30220</v>
       </c>
       <c r="B185" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C185" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -4249,10 +4249,10 @@
         <v>30221</v>
       </c>
       <c r="B186" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C186" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -4260,10 +4260,10 @@
         <v>30222</v>
       </c>
       <c r="B187" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C187" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -4271,10 +4271,10 @@
         <v>30223</v>
       </c>
       <c r="B188" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C188" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -4282,10 +4282,10 @@
         <v>30224</v>
       </c>
       <c r="B189" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C189" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -4293,10 +4293,10 @@
         <v>30299</v>
       </c>
       <c r="B190" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C190" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -4304,10 +4304,10 @@
         <v>303</v>
       </c>
       <c r="B191" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C191" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -4315,10 +4315,10 @@
         <v>30301</v>
       </c>
       <c r="B192" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C192" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -4326,10 +4326,10 @@
         <v>30302</v>
       </c>
       <c r="B193" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C193" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -4337,10 +4337,10 @@
         <v>30303</v>
       </c>
       <c r="B194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C194" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -4348,10 +4348,10 @@
         <v>30304</v>
       </c>
       <c r="B195" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C195" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -4359,10 +4359,10 @@
         <v>30305</v>
       </c>
       <c r="B196" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C196" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -4370,10 +4370,10 @@
         <v>30306</v>
       </c>
       <c r="B197" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C197" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -4381,10 +4381,10 @@
         <v>30307</v>
       </c>
       <c r="B198" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C198" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -4392,10 +4392,10 @@
         <v>30308</v>
       </c>
       <c r="B199" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C199" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -4403,10 +4403,10 @@
         <v>30309</v>
       </c>
       <c r="B200" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C200" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4414,10 +4414,10 @@
         <v>30310</v>
       </c>
       <c r="B201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C201" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -4425,10 +4425,10 @@
         <v>30399</v>
       </c>
       <c r="B202" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C202" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4436,10 +4436,10 @@
         <v>304</v>
       </c>
       <c r="B203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C203" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4447,10 +4447,10 @@
         <v>30401</v>
       </c>
       <c r="B204" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C204" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -4458,10 +4458,10 @@
         <v>30402</v>
       </c>
       <c r="B205" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C205" t="s">
-        <v>387</v>
+        <v>603</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -4469,10 +4469,10 @@
         <v>30403</v>
       </c>
       <c r="B206" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C206" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -4480,10 +4480,10 @@
         <v>30499</v>
       </c>
       <c r="B207" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C207" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -4491,10 +4491,10 @@
         <v>305</v>
       </c>
       <c r="B208" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C208" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -4502,10 +4502,10 @@
         <v>30501</v>
       </c>
       <c r="B209" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C209" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -4513,10 +4513,10 @@
         <v>30502</v>
       </c>
       <c r="B210" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C210" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -4524,10 +4524,10 @@
         <v>30599</v>
       </c>
       <c r="B211" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C211" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -4535,10 +4535,10 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C212" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -4546,10 +4546,10 @@
         <v>401</v>
       </c>
       <c r="B213" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C213" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -4557,10 +4557,10 @@
         <v>40101</v>
       </c>
       <c r="B214" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C214" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -4568,10 +4568,10 @@
         <v>40102</v>
       </c>
       <c r="B215" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C215" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -4579,10 +4579,10 @@
         <v>40103</v>
       </c>
       <c r="B216" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C216" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -4590,10 +4590,10 @@
         <v>40104</v>
       </c>
       <c r="B217" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C217" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -4601,10 +4601,10 @@
         <v>40105</v>
       </c>
       <c r="B218" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C218" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -4612,10 +4612,10 @@
         <v>40106</v>
       </c>
       <c r="B219" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C219" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -4623,10 +4623,10 @@
         <v>40107</v>
       </c>
       <c r="B220" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C220" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -4634,10 +4634,10 @@
         <v>40108</v>
       </c>
       <c r="B221" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C221" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -4645,10 +4645,10 @@
         <v>402</v>
       </c>
       <c r="B222" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C222" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -4656,10 +4656,10 @@
         <v>40201</v>
       </c>
       <c r="B223" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C223" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4667,10 +4667,10 @@
         <v>403</v>
       </c>
       <c r="B224" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C224" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -4678,10 +4678,10 @@
         <v>40301</v>
       </c>
       <c r="B225" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C225" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -4689,10 +4689,10 @@
         <v>40302</v>
       </c>
       <c r="B226" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C226" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -4700,10 +4700,10 @@
         <v>40303</v>
       </c>
       <c r="B227" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C227" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -4711,10 +4711,10 @@
         <v>40304</v>
       </c>
       <c r="B228" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C228" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -4722,10 +4722,10 @@
         <v>404</v>
       </c>
       <c r="B229" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C229" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -4733,10 +4733,10 @@
         <v>40401</v>
       </c>
       <c r="B230" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C230" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4744,10 +4744,10 @@
         <v>40402</v>
       </c>
       <c r="B231" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -4755,10 +4755,10 @@
         <v>405</v>
       </c>
       <c r="B232" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C232" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -4766,10 +4766,10 @@
         <v>40501</v>
       </c>
       <c r="B233" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C233" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -4777,10 +4777,10 @@
         <v>40502</v>
       </c>
       <c r="B234" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C234" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -4788,10 +4788,10 @@
         <v>40503</v>
       </c>
       <c r="B235" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C235" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -4799,10 +4799,10 @@
         <v>40504</v>
       </c>
       <c r="B236" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C236" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4810,10 +4810,10 @@
         <v>40599</v>
       </c>
       <c r="B237" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C237" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -4821,10 +4821,10 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C238" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -4832,10 +4832,10 @@
         <v>501</v>
       </c>
       <c r="B239" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C239" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -4843,10 +4843,10 @@
         <v>50101</v>
       </c>
       <c r="B240" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C240" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -4854,10 +4854,10 @@
         <v>50102</v>
       </c>
       <c r="B241" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C241" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -4865,10 +4865,10 @@
         <v>502</v>
       </c>
       <c r="B242" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C242" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -4876,10 +4876,10 @@
         <v>50201</v>
       </c>
       <c r="B243" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C243" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -4887,10 +4887,10 @@
         <v>50202</v>
       </c>
       <c r="B244" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C244" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -4898,10 +4898,10 @@
         <v>50203</v>
       </c>
       <c r="B245" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C245" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -4909,10 +4909,10 @@
         <v>503</v>
       </c>
       <c r="B246" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C246" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -4920,10 +4920,10 @@
         <v>50301</v>
       </c>
       <c r="B247" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C247" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -4931,10 +4931,10 @@
         <v>50302</v>
       </c>
       <c r="B248" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C248" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -4942,10 +4942,10 @@
         <v>50303</v>
       </c>
       <c r="B249" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C249" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -4953,10 +4953,10 @@
         <v>50304</v>
       </c>
       <c r="B250" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C250" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -4964,10 +4964,10 @@
         <v>504</v>
       </c>
       <c r="B251" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C251" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -4975,10 +4975,10 @@
         <v>50401</v>
       </c>
       <c r="B252" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C252" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -4986,10 +4986,10 @@
         <v>50402</v>
       </c>
       <c r="B253" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C253" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -4997,10 +4997,10 @@
         <v>50403</v>
       </c>
       <c r="B254" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C254" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -5008,10 +5008,10 @@
         <v>50404</v>
       </c>
       <c r="B255" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C255" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -5019,10 +5019,10 @@
         <v>505</v>
       </c>
       <c r="B256" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C256" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -5030,10 +5030,10 @@
         <v>50501</v>
       </c>
       <c r="B257" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C257" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -5041,10 +5041,10 @@
         <v>50502</v>
       </c>
       <c r="B258" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C258" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -5052,10 +5052,10 @@
         <v>506</v>
       </c>
       <c r="B259" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C259" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -5063,10 +5063,10 @@
         <v>50601</v>
       </c>
       <c r="B260" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C260" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -5074,10 +5074,10 @@
         <v>50602</v>
       </c>
       <c r="B261" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C261" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -5085,10 +5085,10 @@
         <v>50603</v>
       </c>
       <c r="B262" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C262" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -5096,10 +5096,10 @@
         <v>507</v>
       </c>
       <c r="B263" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C263" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -5107,10 +5107,10 @@
         <v>50701</v>
       </c>
       <c r="B264" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C264" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -5118,10 +5118,10 @@
         <v>50702</v>
       </c>
       <c r="B265" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C265" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -5129,10 +5129,10 @@
         <v>508</v>
       </c>
       <c r="B266" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C266" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -5140,10 +5140,10 @@
         <v>50801</v>
       </c>
       <c r="B267" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C267" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -5151,10 +5151,10 @@
         <v>50802</v>
       </c>
       <c r="B268" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C268" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -5162,10 +5162,10 @@
         <v>50803</v>
       </c>
       <c r="B269" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C269" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -5173,10 +5173,10 @@
         <v>50804</v>
       </c>
       <c r="B270" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C270" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -5184,10 +5184,10 @@
         <v>50805</v>
       </c>
       <c r="B271" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C271" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -5195,10 +5195,10 @@
         <v>509</v>
       </c>
       <c r="B272" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C272" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -5206,10 +5206,10 @@
         <v>50901</v>
       </c>
       <c r="B273" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C273" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -5217,10 +5217,10 @@
         <v>50902</v>
       </c>
       <c r="B274" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C274" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -5228,10 +5228,10 @@
         <v>50903</v>
       </c>
       <c r="B275" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C275" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -5239,10 +5239,10 @@
         <v>50904</v>
       </c>
       <c r="B276" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C276" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -5250,10 +5250,10 @@
         <v>50999</v>
       </c>
       <c r="B277" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C277" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -5261,10 +5261,10 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C278" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -5272,10 +5272,10 @@
         <v>601</v>
       </c>
       <c r="B279" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C279" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -5283,10 +5283,10 @@
         <v>60101</v>
       </c>
       <c r="B280" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C280" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -5294,10 +5294,10 @@
         <v>60102</v>
       </c>
       <c r="B281" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C281" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -5305,10 +5305,10 @@
         <v>60103</v>
       </c>
       <c r="B282" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C282" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -5316,10 +5316,10 @@
         <v>602</v>
       </c>
       <c r="B283" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C283" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -5327,10 +5327,10 @@
         <v>60201</v>
       </c>
       <c r="B284" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C284" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -5338,10 +5338,10 @@
         <v>60202</v>
       </c>
       <c r="B285" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C285" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -5349,10 +5349,10 @@
         <v>60203</v>
       </c>
       <c r="B286" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C286" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -5360,10 +5360,10 @@
         <v>60204</v>
       </c>
       <c r="B287" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C287" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -5371,10 +5371,10 @@
         <v>603</v>
       </c>
       <c r="B288" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C288" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -5382,10 +5382,10 @@
         <v>60301</v>
       </c>
       <c r="B289" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C289" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -5393,10 +5393,10 @@
         <v>60302</v>
       </c>
       <c r="B290" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C290" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -5404,10 +5404,10 @@
         <v>60303</v>
       </c>
       <c r="B291" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C291" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -5415,10 +5415,10 @@
         <v>60304</v>
       </c>
       <c r="B292" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C292" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -5426,10 +5426,10 @@
         <v>60305</v>
       </c>
       <c r="B293" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C293" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -5437,10 +5437,10 @@
         <v>604</v>
       </c>
       <c r="B294" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C294" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -5448,10 +5448,10 @@
         <v>60401</v>
       </c>
       <c r="B295" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C295" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -5459,10 +5459,10 @@
         <v>60402</v>
       </c>
       <c r="B296" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C296" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -5470,10 +5470,10 @@
         <v>60403</v>
       </c>
       <c r="B297" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C297" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -5481,10 +5481,10 @@
         <v>60404</v>
       </c>
       <c r="B298" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C298" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -5492,10 +5492,10 @@
         <v>60405</v>
       </c>
       <c r="B299" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C299" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -5503,10 +5503,10 @@
         <v>60406</v>
       </c>
       <c r="B300" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C300" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -5514,10 +5514,10 @@
         <v>60407</v>
       </c>
       <c r="B301" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C301" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -5525,10 +5525,10 @@
         <v>60408</v>
       </c>
       <c r="B302" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C302" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -5536,10 +5536,10 @@
         <v>60409</v>
       </c>
       <c r="B303" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C303" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -5547,10 +5547,10 @@
         <v>60410</v>
       </c>
       <c r="B304" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C304" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -5558,10 +5558,10 @@
         <v>605</v>
       </c>
       <c r="B305" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C305" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -5569,10 +5569,10 @@
         <v>60501</v>
       </c>
       <c r="B306" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C306" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -5580,10 +5580,10 @@
         <v>60502</v>
       </c>
       <c r="B307" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C307" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -5591,10 +5591,10 @@
         <v>60503</v>
       </c>
       <c r="B308" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C308" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -5602,10 +5602,10 @@
         <v>60599</v>
       </c>
       <c r="B309" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C309" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
